--- a/biology/Zoologie/Chlosyne_leanira/Chlosyne_leanira.xlsx
+++ b/biology/Zoologie/Chlosyne_leanira/Chlosyne_leanira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne leanira est une espèce de lépidoptères (papillons) de la famille des Nymphalidae de la sous-famille des Nymphalinae et du genre Chlosyne.
 </t>
@@ -511,52 +523,54 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne leanira a été nommée par Cajetan Freiherr von Felder et Rudolf Felder en 1860.
-Synonymes : Melitaea leanira C. &amp; R. Felder, 1860 ; Thessalia daviesi Wind, 1947 ; Thessalia leanira ; Dyar, 1903 [1].
-Sous-espèces
-Chlosyne leanira alma Strecker, [1878]
+Synonymes : Melitaea leanira C. &amp; R. Felder, 1860 ; Thessalia daviesi Wind, 1947 ; Thessalia leanira ; Dyar, 1903 .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chlosyne_leanira</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_leanira</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chlosyne leanira alma Strecker, 
 Chlosyne leanira austrima (Austin &amp; Smith, 1998)
 Chlosyne leanira cerrita Wright, 1905
 Chlosyne leanira elegans Preistaf &amp; Emmel, 1998
 Chlosyne leanira oregonensis (Bauer, 1975)
-Chlosyne leanira wrightii (Edwards, 1886)[1].
-Noms vernaculaires
-Chlosyne leanira se nomme en anglais Leanira Checkerspot [1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chlosyne_leanira</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chlosyne_leanira</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlosyne leanira est un papillon marron orné de lignes parallèles de taches de couleur variable du jaune pâle au rouge orangé, une submarginale de taches orange, puis une de taches rondes jaunes, une seconde de taches rondes jaunes aux antérieures alors qu'aux postérieures ce sont des taches ovales; le bord costal des antérieures est souligné d'orange.
-Le revers des antérieures est orange à damiers blancs et aux postérieures les damiers sont blancs cernés de marron.  C'est un papillon de taille moyenne (son envergure varie entre 35 et 45 mm[2].
-</t>
+Chlosyne leanira wrightii (Edwards, 1886).</t>
         </is>
       </c>
     </row>
@@ -581,15 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Chlosyne leanira hiberne au troisième stade de chenille[2].
-Plantes hôtes
-Les plantes hôtes de la chenille sont  des Castilleja et Cordylanthus pilosus[1].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne leanira se nomme en anglais Leanira Checkerspot .
 </t>
         </is>
       </c>
@@ -615,16 +632,196 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne leanira est un papillon marron orné de lignes parallèles de taches de couleur variable du jaune pâle au rouge orangé, une submarginale de taches orange, puis une de taches rondes jaunes, une seconde de taches rondes jaunes aux antérieures alors qu'aux postérieures ce sont des taches ovales; le bord costal des antérieures est souligné d'orange.
+Le revers des antérieures est orange à damiers blancs et aux postérieures les damiers sont blancs cernés de marron.  C'est un papillon de taille moyenne (son envergure varie entre 35 et 45 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chlosyne_leanira</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_leanira</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne leanira hiberne au troisième stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chlosyne_leanira</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_leanira</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont  des Castilleja et Cordylanthus pilosus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chlosyne_leanira</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_leanira</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent sur la côte ouest de l'Amérique du Nord aux États-Unis  dans le sud de l'Oregon et de l'Idaho, le Nevada, l'Utah, l'ouest du Coloradoet en Californie [2].
-Biotope
-Il est présent dans les canyons, dans les clairières, au bord des routes[2].
-Protection
-Pas de statut de protection particulier[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent sur la côte ouest de l'Amérique du Nord aux États-Unis  dans le sud de l'Oregon et de l'Idaho, le Nevada, l'Utah, l'ouest du Coloradoet en Californie .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chlosyne_leanira</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_leanira</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans les canyons, dans les clairières, au bord des routes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chlosyne_leanira</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_leanira</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
